--- a/data/journal.xlsx
+++ b/data/journal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cjschan/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D75068A8-E581-E94F-9176-E6D8F385E64A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{06D1693F-CF8D-2B48-A33B-B9F885415C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{A3CDF16E-C20C-B244-8AEA-019218D6A2DC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="5">
   <si>
     <t>Account Name</t>
   </si>
@@ -45,6 +45,12 @@
   </si>
   <si>
     <t>Credit</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
@@ -396,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3771DA8-2E11-D74C-B287-35B8A10102F8}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -420,6 +426,72 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/journal.xlsx
+++ b/data/journal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cjschan/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06D1693F-CF8D-2B48-A33B-B9F885415C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555E5430-8C78-D14A-A1DA-418AAF792353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{A3CDF16E-C20C-B244-8AEA-019218D6A2DC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Account Name</t>
   </si>
@@ -47,10 +47,58 @@
     <t>Credit</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>C7</t>
   </si>
 </sst>
 </file>
@@ -405,7 +453,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -428,13 +476,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -442,54 +490,54 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/data/journal.xlsx
+++ b/data/journal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cjschan/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{555E5430-8C78-D14A-A1DA-418AAF792353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7215D0-7473-BA45-BDAD-87F80E9EAD13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{A3CDF16E-C20C-B244-8AEA-019218D6A2DC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Account Name</t>
   </si>
@@ -53,52 +53,10 @@
     <t>A3</t>
   </si>
   <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>A5</t>
-  </si>
-  <si>
-    <t>A6</t>
-  </si>
-  <si>
-    <t>A7</t>
-  </si>
-  <si>
     <t>B2</t>
   </si>
   <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>B4</t>
-  </si>
-  <si>
-    <t>B5</t>
-  </si>
-  <si>
-    <t>B6</t>
-  </si>
-  <si>
-    <t>B7</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
     <t>C3</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>C6</t>
-  </si>
-  <si>
-    <t>C7</t>
   </si>
 </sst>
 </file>
@@ -450,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3771DA8-2E11-D74C-B287-35B8A10102F8}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -479,65 +437,15 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
       <c r="C3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
         <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/data/journal.xlsx
+++ b/data/journal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cjschan/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7215D0-7473-BA45-BDAD-87F80E9EAD13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB7D1A94-EB43-FA48-BBD8-0BED142E023D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{A3CDF16E-C20C-B244-8AEA-019218D6A2DC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Account Name</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>C3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -411,7 +414,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -439,10 +442,16 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
